--- a/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4.xlsx
+++ b/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.4 20161206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.4 20161206\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="11745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -358,13 +358,32 @@
   <si>
     <t>一键全网同步</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广信息更新</t>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointRoomTriggerTask</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTriggerTask"}</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周一中午12:00:00到周日下午18:00:00期间，每隔1小时执行一次（周日晚18点后~周一上午12点前不执行）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -504,6 +523,34 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -753,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,6 +1058,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1041,7 +1121,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1387,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -5512,8 +5592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5593,70 +5673,96 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="94"/>
+      <c r="L2" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="43"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="A3" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="95"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>

--- a/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4.xlsx
+++ b/VersionRecords/Version 5.1.4 20161206/版本Bug和特性计划及评审表v5.1.4.xlsx
@@ -253,9 +253,6 @@
     <t>JointRoomTask</t>
   </si>
   <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTask"}</t>
-  </si>
-  <si>
     <t>定时每周任务</t>
   </si>
   <si>
@@ -377,6 +374,10 @@
   <si>
     <t>每周一中午12:00:00到周日下午18:00:00期间，每隔1小时执行一次（周日晚18点后~周一上午12点前不执行）</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.JointRoomTask"}</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1032,6 +1033,39 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,39 +1092,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1573,7 +1574,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>23</v>
@@ -5592,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5673,96 +5674,96 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="93" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="93" t="s">
+      <c r="M2" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="O2" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="Q2" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="86"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93" t="s">
+      <c r="K3" s="85"/>
+      <c r="L3" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="93" t="s">
+      <c r="M3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="N3" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="P3" s="96" t="s">
+      <c r="P3" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="95"/>
+      <c r="R3" s="86"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
@@ -5812,58 +5813,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="A1" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5875,8 +5876,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5888,8 +5889,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5901,8 +5902,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5914,8 +5915,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5927,8 +5928,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5940,8 +5941,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5953,8 +5954,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6015,73 +6016,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6329,73 +6330,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6643,73 +6644,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -6959,73 +6960,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>20</v>
@@ -7270,28 +7271,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
